--- a/CE01ISSP/Omaha_Cal_Info_CE01ISSP_00004.xlsx
+++ b/CE01ISSP/Omaha_Cal_Info_CE01ISSP_00004.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="945" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Constant.  wlupper = Upper wavelength limit for spectra fit. From DPS: 240 nm (1-cm pathlength probe tip) or 245 nm (4-cm pathlength probe tip)</t>
   </si>
   <si>
-    <t>25 m</t>
-  </si>
-  <si>
     <t>Requires TEMPWAT, PRESWAT and PRACSAL from CE06ISSP-SP001-09-CTDPFJ000</t>
   </si>
   <si>
@@ -359,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -599,6 +596,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -712,14 +710,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1249,7 +1247,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,10 +1263,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1336,7 +1334,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1891,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2233,28 +2231,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,31 +2287,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="45" customFormat="1">
+    <row r="2" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>91</v>
       </c>
       <c r="C2" s="42">
         <v>4</v>
       </c>
       <c r="D2" s="43">
-        <v>41746</v>
+        <v>42111</v>
       </c>
       <c r="E2" s="44">
         <v>0.93055555555555547</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>65</v>
+        <v>101</v>
+      </c>
+      <c r="I2" s="42">
+        <v>25</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>34</v>
@@ -2327,13 +2325,13 @@
         <v>-124.09524</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
@@ -2342,7 +2340,7 @@
         <v>44.656019999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
@@ -2351,73 +2349,73 @@
         <v>-124.09524</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1">
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1">
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1">
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1">
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="3:6" s="8" customFormat="1">
+    <row r="17" spans="3:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -2441,22 +2439,22 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2488,12 +2486,12 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="23">
         <v>4</v>
@@ -2511,12 +2509,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="27">
         <v>4</v>
@@ -2534,12 +2532,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="27">
         <v>4</v>
@@ -2551,18 +2549,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="27">
         <v>4</v>
@@ -2571,16 +2569,16 @@
         <v>353</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -2589,62 +2587,62 @@
       <c r="F7" s="24"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="23">
         <v>4</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="27">
         <v>4</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="27">
         <v>4</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>51</v>
@@ -2654,112 +2652,112 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="27">
         <v>4</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="27">
         <v>4</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="27">
         <v>4</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="27">
         <v>4</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="27">
         <v>4</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -2768,18 +2766,18 @@
       <c r="F16" s="24"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="23">
         <v>4</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>7</v>
@@ -2791,18 +2789,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="27">
         <v>4</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>8</v>
@@ -2814,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -2823,12 +2821,12 @@
       <c r="F19" s="24"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="23">
         <v>4</v>
@@ -2846,12 +2844,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="27">
         <v>4</v>
@@ -2869,12 +2867,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="27">
         <v>4</v>
@@ -2892,12 +2890,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="27">
         <v>4</v>
@@ -2909,18 +2907,18 @@
         <v>42</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="27">
         <v>4</v>
@@ -2932,18 +2930,18 @@
         <v>44</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="27">
         <v>4</v>
@@ -2955,18 +2953,18 @@
         <v>46</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="27">
         <v>4</v>
@@ -2978,13 +2976,13 @@
         <v>48</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -2993,12 +2991,12 @@
       <c r="F27" s="24"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="23">
         <v>4</v>
@@ -3010,16 +3008,16 @@
         <v>35</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="27">
         <v>4</v>
@@ -3031,16 +3029,16 @@
         <v>36</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="27">
         <v>4</v>
@@ -3052,11 +3050,11 @@
         <v>37</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -3065,12 +3063,12 @@
       <c r="F31" s="24"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="23">
         <v>4</v>
@@ -3088,12 +3086,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="27">
         <v>4</v>
@@ -3111,12 +3109,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="27">
         <v>4</v>
@@ -3134,12 +3132,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="27">
         <v>4</v>
@@ -3157,12 +3155,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="27">
         <v>4</v>
@@ -3180,12 +3178,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="27">
         <v>4</v>
@@ -3203,12 +3201,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="27">
         <v>4</v>
@@ -3226,12 +3224,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="27">
         <v>4</v>
@@ -3249,12 +3247,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="27">
         <v>4</v>
@@ -3272,12 +3270,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="27">
         <v>4</v>
@@ -3295,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
@@ -3304,18 +3302,18 @@
       <c r="F42" s="24"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="23">
         <v>4</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>7</v>
@@ -3327,18 +3325,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="27">
         <v>4</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>8</v>
@@ -3350,7 +3348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
@@ -3359,12 +3357,12 @@
       <c r="F45" s="24"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="23">
         <v>4</v>
@@ -3380,12 +3378,12 @@
       </c>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="27">
         <v>4</v>
@@ -3401,12 +3399,12 @@
       </c>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="27">
         <v>4</v>
@@ -3422,7 +3420,7 @@
       </c>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" s="12" customFormat="1">
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="23"/>
@@ -3431,27 +3429,27 @@
       <c r="F49" s="33"/>
       <c r="G49" s="32"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="23">
         <v>4</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="35"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1"/>
-    <row r="52" spans="1:7" s="7" customFormat="1"/>
-    <row r="53" spans="1:7" s="7" customFormat="1"/>
-    <row r="54" spans="1:7" s="7" customFormat="1"/>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3472,9 +3470,9 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.5780999999999998E-2</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>2.1193E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.7167999999999999E-2</v>
       </c>
@@ -3688,7 +3686,7 @@
         <v>1.1336000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8.5559999999999994E-3</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>-4.3610000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.117E-3</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>-7.6249999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.182E-3</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>-9.7070000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.6540000000000002E-3</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>-1.0126E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.8370000000000001E-3</v>
       </c>
@@ -4330,7 +4328,7 @@
         <v>-9.5200000000000007E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.9389999999999998E-3</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>-9.9399999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.679E-3</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>-9.6399999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.9609999999999993E-3</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>-9.2029999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.8800000000000007E-3</v>
       </c>
@@ -4758,7 +4756,7 @@
         <v>-8.9390000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.4479999999999998E-3</v>
       </c>
@@ -4865,7 +4863,7 @@
         <v>-8.8070000000000006E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.8200000000000006E-3</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>-8.3180000000000007E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.0178E-2</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>-8.3160000000000005E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.1164E-2</v>
       </c>
@@ -5186,7 +5184,7 @@
         <v>-7.9609999999999993E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.1211E-2</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>-7.6880000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0957E-2</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>-7.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0567E-2</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>-7.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.6740000000000003E-3</v>
       </c>
@@ -5614,7 +5612,7 @@
         <v>-6.6239999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.3410000000000003E-3</v>
       </c>
@@ -5721,7 +5719,7 @@
         <v>-6.306E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.4539999999999997E-3</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>-5.8950000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8.2310000000000005E-3</v>
       </c>
@@ -5935,7 +5933,7 @@
         <v>-5.509E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7.3109999999999998E-3</v>
       </c>
@@ -6042,7 +6040,7 @@
         <v>-5.019E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.7530000000000003E-3</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>-4.646E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.3889999999999997E-3</v>
       </c>
@@ -6256,7 +6254,7 @@
         <v>-4.2750000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.8970000000000003E-3</v>
       </c>
@@ -6363,7 +6361,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.5420000000000001E-3</v>
       </c>
@@ -6470,7 +6468,7 @@
         <v>-3.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.9880000000000002E-3</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>-3.1089999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.999E-3</v>
       </c>
@@ -6684,7 +6682,7 @@
         <v>-2.807E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.6410000000000002E-3</v>
       </c>
@@ -6791,7 +6789,7 @@
         <v>-2.444E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.5269999999999998E-3</v>
       </c>
@@ -6898,7 +6896,7 @@
         <v>-2.173E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.1970000000000002E-3</v>
       </c>
@@ -7005,7 +7003,7 @@
         <v>-1.92E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.8089999999999999E-3</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.189E-3</v>
       </c>
@@ -7219,7 +7217,7 @@
         <v>-1.567E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2560000000000002E-3</v>
       </c>
@@ -7326,7 +7324,7 @@
         <v>-1.438E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.147E-3</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.4700000000000002E-4</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>-1.328E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.1570000000000001E-3</v>
       </c>
@@ -7647,7 +7645,7 @@
         <v>-1.4239999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-3.0799999999999998E-3</v>
       </c>
@@ -7754,7 +7752,7 @@
         <v>-1.467E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-3.5469999999999998E-3</v>
       </c>
@@ -7861,7 +7859,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-3.1150000000000001E-3</v>
       </c>
@@ -7968,7 +7966,7 @@
         <v>-1.7359999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.0340000000000003E-3</v>
       </c>
@@ -8075,7 +8073,7 @@
         <v>-7.4200000000000004E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.5750000000000001E-3</v>
       </c>
@@ -8182,7 +8180,7 @@
         <v>-7.5600000000000005E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.5779999999999996E-3</v>
       </c>
@@ -8289,7 +8287,7 @@
         <v>-7.2400000000000003E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.176E-3</v>
       </c>
@@ -8396,7 +8394,7 @@
         <v>-7.2400000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.071E-3</v>
       </c>
@@ -8503,7 +8501,7 @@
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-3.8679999999999999E-3</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>-7.8799999999999996E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-3.5279999999999999E-3</v>
       </c>
@@ -8717,7 +8715,7 @@
         <v>-7.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -8824,7 +8822,7 @@
         <v>-7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.4169999999999999E-3</v>
       </c>
@@ -8931,7 +8929,7 @@
         <v>-7.94E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.483E-3</v>
       </c>
@@ -9038,7 +9036,7 @@
         <v>-7.9100000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.454E-3</v>
       </c>
@@ -9145,7 +9143,7 @@
         <v>-7.2199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-3.4759999999999999E-3</v>
       </c>
@@ -9252,7 +9250,7 @@
         <v>-7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-3.5729999999999998E-3</v>
       </c>
@@ -9359,7 +9357,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-3.666E-3</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>-6.5499999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-3.771E-3</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>-6.4599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-3.8969999999999999E-3</v>
       </c>
@@ -9680,7 +9678,7 @@
         <v>-6.0800000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-4.0460000000000001E-3</v>
       </c>
@@ -9787,7 +9785,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-4.1229999999999999E-3</v>
       </c>
@@ -9894,7 +9892,7 @@
         <v>-5.71E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-4.4140000000000004E-3</v>
       </c>
@@ -10001,7 +9999,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-4.5139999999999998E-3</v>
       </c>
@@ -10108,7 +10106,7 @@
         <v>-4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-4.5279999999999999E-3</v>
       </c>
@@ -10215,7 +10213,7 @@
         <v>-4.3399999999999998E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-4.7699999999999999E-3</v>
       </c>
@@ -10322,7 +10320,7 @@
         <v>-4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-4.6909999999999999E-3</v>
       </c>
@@ -10429,7 +10427,7 @@
         <v>-3.4900000000000003E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-4.9100000000000003E-3</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>-3.3E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-4.9040000000000004E-3</v>
       </c>
@@ -10643,7 +10641,7 @@
         <v>-3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-4.9459999999999999E-3</v>
       </c>
@@ -10750,7 +10748,7 @@
         <v>-3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-5.2160000000000002E-3</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-5.1619999999999999E-3</v>
       </c>
@@ -10964,7 +10962,7 @@
         <v>-2.5099999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-5.267E-3</v>
       </c>
@@ -11071,7 +11069,7 @@
         <v>-2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-5.3049999999999998E-3</v>
       </c>
@@ -11178,7 +11176,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-5.1419999999999999E-3</v>
       </c>
@@ -11285,7 +11283,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-5.0359999999999997E-3</v>
       </c>
@@ -11392,7 +11390,7 @@
         <v>-1.83E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.3579999999999999E-3</v>
       </c>
@@ -11499,7 +11497,7 @@
         <v>-7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-5.3299999999999997E-3</v>
       </c>
@@ -11606,7 +11604,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-5.3070000000000001E-3</v>
       </c>
@@ -11713,7 +11711,7 @@
         <v>7.6000000000000004E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-5.2009999999999999E-3</v>
       </c>
@@ -11820,7 +11818,7 @@
         <v>1.05E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-4.8599999999999997E-3</v>
       </c>
@@ -11927,7 +11925,7 @@
         <v>1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-4.6449999999999998E-3</v>
       </c>
@@ -12034,7 +12032,7 @@
         <v>1.3899999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-4.365E-3</v>
       </c>
@@ -12141,7 +12139,7 @@
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-4.7549999999999997E-3</v>
       </c>
@@ -12248,7 +12246,7 @@
         <v>2.1100000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-4.6899999999999997E-3</v>
       </c>
@@ -12355,7 +12353,7 @@
         <v>3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-5.0220000000000004E-3</v>
       </c>
@@ -12462,7 +12460,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-5.5160000000000001E-3</v>
       </c>
@@ -12587,9 +12585,9 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-4.1287999999999998E-2</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>-1.4790000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.1367000000000001E-2</v>
       </c>
@@ -12803,7 +12801,7 @@
         <v>-2.611E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3.7718000000000002E-2</v>
       </c>
@@ -12910,7 +12908,7 @@
         <v>-1.418E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.5545E-2</v>
       </c>
@@ -13017,7 +13015,7 @@
         <v>-2.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.0488999999999999E-2</v>
       </c>
@@ -13124,7 +13122,7 @@
         <v>-2.6819999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.7740999999999998E-2</v>
       </c>
@@ -13231,7 +13229,7 @@
         <v>-3.4970000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.4542999999999999E-2</v>
       </c>
@@ -13338,7 +13336,7 @@
         <v>-2.663E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.3806999999999998E-2</v>
       </c>
@@ -13445,7 +13443,7 @@
         <v>-3.852E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.1422E-2</v>
       </c>
@@ -13552,7 +13550,7 @@
         <v>-4.0220000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.0753000000000001E-2</v>
       </c>
@@ -13659,7 +13657,7 @@
         <v>-4.2459999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.8873999999999998E-2</v>
       </c>
@@ -13766,7 +13764,7 @@
         <v>-3.9769999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.8828999999999999E-2</v>
       </c>
@@ -13873,7 +13871,7 @@
         <v>-4.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.8471000000000001E-2</v>
       </c>
@@ -13980,7 +13978,7 @@
         <v>-4.2909999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.7864000000000001E-2</v>
       </c>
@@ -14087,7 +14085,7 @@
         <v>-4.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.7205000000000002E-2</v>
       </c>
@@ -14194,7 +14192,7 @@
         <v>-4.1949999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.7103E-2</v>
       </c>
@@ -14301,7 +14299,7 @@
         <v>-4.1640000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.6115999999999998E-2</v>
       </c>
@@ -14408,7 +14406,7 @@
         <v>-4.267E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.5507E-2</v>
       </c>
@@ -14515,7 +14513,7 @@
         <v>-4.1989999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.473E-2</v>
       </c>
@@ -14622,7 +14620,7 @@
         <v>-4.15E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.3806000000000001E-2</v>
       </c>
@@ -14729,7 +14727,7 @@
         <v>-4.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.2939000000000001E-2</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>-4.0619999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.2475E-2</v>
       </c>
@@ -14943,7 +14941,7 @@
         <v>-3.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.1646999999999999E-2</v>
       </c>
@@ -15050,7 +15048,7 @@
         <v>-3.954E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0881E-2</v>
       </c>
@@ -15157,7 +15155,7 @@
         <v>-4.0109999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.0399E-2</v>
       </c>
@@ -15264,7 +15262,7 @@
         <v>-3.8639999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-9.9030000000000003E-3</v>
       </c>
@@ -15371,7 +15369,7 @@
         <v>-3.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9.4710000000000003E-3</v>
       </c>
@@ -15478,7 +15476,7 @@
         <v>-3.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8.8470000000000007E-3</v>
       </c>
@@ -15585,7 +15583,7 @@
         <v>-3.908E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-8.4019999999999997E-3</v>
       </c>
@@ -15692,7 +15690,7 @@
         <v>-3.8609999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.5960000000000003E-3</v>
       </c>
@@ -15799,7 +15797,7 @@
         <v>-3.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.1190000000000003E-3</v>
       </c>
@@ -15906,7 +15904,7 @@
         <v>-3.8119999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.5079999999999999E-3</v>
       </c>
@@ -16013,7 +16011,7 @@
         <v>-3.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5.9249999999999997E-3</v>
       </c>
@@ -16120,7 +16118,7 @@
         <v>-3.7580000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-5.1320000000000003E-3</v>
       </c>
@@ -16227,7 +16225,7 @@
         <v>-3.6679999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.8580000000000003E-3</v>
       </c>
@@ -16334,7 +16332,7 @@
         <v>-3.5309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.9160000000000002E-3</v>
       </c>
@@ -16441,7 +16439,7 @@
         <v>-3.421E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.2449999999999997E-3</v>
       </c>
@@ -16548,7 +16546,7 @@
         <v>-3.2940000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-5.8999999999999999E-3</v>
       </c>
@@ -16655,7 +16653,7 @@
         <v>-3.0309999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-6.7629999999999999E-3</v>
       </c>
@@ -16762,7 +16760,7 @@
         <v>-2.8449999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-7.8220000000000008E-3</v>
       </c>
@@ -16869,7 +16867,7 @@
         <v>-2.6319999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-8.6490000000000004E-3</v>
       </c>
@@ -16976,7 +16974,7 @@
         <v>-2.4719999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-9.639E-3</v>
       </c>
@@ -17083,7 +17081,7 @@
         <v>-2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-9.6080000000000002E-3</v>
       </c>
@@ -17190,7 +17188,7 @@
         <v>-1.536E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-9.6089999999999995E-3</v>
       </c>
@@ -17297,7 +17295,7 @@
         <v>-1.469E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-9.2999999999999992E-3</v>
       </c>
@@ -17404,7 +17402,7 @@
         <v>-1.469E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-8.9479999999999994E-3</v>
       </c>
@@ -17511,7 +17509,7 @@
         <v>-1.4809999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-9.0410000000000004E-3</v>
       </c>
@@ -17618,7 +17616,7 @@
         <v>-1.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-8.6440000000000006E-3</v>
       </c>
@@ -17725,7 +17723,7 @@
         <v>-1.555E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-8.4069999999999995E-3</v>
       </c>
@@ -17832,7 +17830,7 @@
         <v>-1.66E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-8.2459999999999999E-3</v>
       </c>
@@ -17939,7 +17937,7 @@
         <v>-1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-8.064E-3</v>
       </c>
@@ -18046,7 +18044,7 @@
         <v>-1.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-8.2019999999999992E-3</v>
       </c>
@@ -18153,7 +18151,7 @@
         <v>-1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-8.0560000000000007E-3</v>
       </c>
@@ -18260,7 +18258,7 @@
         <v>-1.902E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.9369999999999996E-3</v>
       </c>
@@ -18367,7 +18365,7 @@
         <v>-1.933E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.9690000000000004E-3</v>
       </c>
@@ -18474,7 +18472,7 @@
         <v>-1.97E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.7330000000000003E-3</v>
       </c>
@@ -18581,7 +18579,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-7.7270000000000004E-3</v>
       </c>
@@ -18688,7 +18686,7 @@
         <v>-2.055E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-7.705E-3</v>
       </c>
@@ -18795,7 +18793,7 @@
         <v>-2.088E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-7.4609999999999998E-3</v>
       </c>
@@ -18902,7 +18900,7 @@
         <v>-2.1220000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-7.3410000000000003E-3</v>
       </c>
@@ -19009,7 +19007,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-7.3309999999999998E-3</v>
       </c>
@@ -19116,7 +19114,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-7.1980000000000004E-3</v>
       </c>
@@ -19223,7 +19221,7 @@
         <v>-2.1710000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-7.2509999999999996E-3</v>
       </c>
@@ -19330,7 +19328,7 @@
         <v>-2.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-7.1089999999999999E-3</v>
       </c>
@@ -19437,7 +19435,7 @@
         <v>-2.2799999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-6.8580000000000004E-3</v>
       </c>
@@ -19544,7 +19542,7 @@
         <v>-2.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.986E-3</v>
       </c>
@@ -19651,7 +19649,7 @@
         <v>-2.4290000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.9249999999999997E-3</v>
       </c>
@@ -19758,7 +19756,7 @@
         <v>-2.5379999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-6.7470000000000004E-3</v>
       </c>
@@ -19865,7 +19863,7 @@
         <v>-2.5509999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-6.8209999999999998E-3</v>
       </c>
@@ -19972,7 +19970,7 @@
         <v>-2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-6.6490000000000004E-3</v>
       </c>
@@ -20079,7 +20077,7 @@
         <v>-2.6949999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-6.4850000000000003E-3</v>
       </c>
@@ -20186,7 +20184,7 @@
         <v>-2.7950000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-6.3400000000000001E-3</v>
       </c>
@@ -20293,7 +20291,7 @@
         <v>-2.9629999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-6.1980000000000004E-3</v>
       </c>
@@ -20400,7 +20398,7 @@
         <v>-2.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-6.0150000000000004E-3</v>
       </c>
@@ -20507,7 +20505,7 @@
         <v>-2.9949999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.9810000000000002E-3</v>
       </c>
@@ -20614,7 +20612,7 @@
         <v>-3.068E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -20721,7 +20719,7 @@
         <v>-3.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-6.1149999999999998E-3</v>
       </c>
@@ -20828,7 +20826,7 @@
         <v>-2.905E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-6.5690000000000002E-3</v>
       </c>
@@ -20935,7 +20933,7 @@
         <v>-2.8839999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-6.6020000000000002E-3</v>
       </c>
@@ -21042,7 +21040,7 @@
         <v>-2.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-6.3099999999999996E-3</v>
       </c>
@@ -21149,7 +21147,7 @@
         <v>-2.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-6.2199999999999998E-3</v>
       </c>
@@ -21256,7 +21254,7 @@
         <v>-2.6849999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-5.9670000000000001E-3</v>
       </c>
@@ -21363,7 +21361,7 @@
         <v>-2.689E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-5.4429999999999999E-3</v>
       </c>
@@ -21470,7 +21468,7 @@
         <v>-2.6489999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-4.9690000000000003E-3</v>
       </c>
@@ -21577,7 +21575,7 @@
         <v>-2.761E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-5.0340000000000003E-3</v>
       </c>
